--- a/data/trans_dic/VUL_DEP-Edad-trans_dic.xlsx
+++ b/data/trans_dic/VUL_DEP-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,7%</t>
         </is>
       </c>
     </row>
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,26; 3,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,77; 8,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,09</t>
+          <t>0,21; 3,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,19; 10,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,19</t>
+          <t>0,89; 4,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,28; 2,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,26; 6,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0,87; 3,34</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,12%</t>
         </is>
       </c>
     </row>
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>0,0; 2,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,4; 3,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,84; 6,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>0,49; 2,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,4; 1,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,81; 3,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,52; 2,22</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>2,82%</t>
         </is>
       </c>
     </row>
@@ -905,54 +906,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>0,35; 2,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,49; 7,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,24</t>
+          <t>0,73; 3,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>1,08; 3,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,74; 6,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>2,3; 6,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>0,9; 2,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,06; 6,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,54</t>
+          <t>1,72; 4,21</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>2,52%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1016,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,85</t>
+          <t>1,01; 3,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,57; 5,52</t>
+          <t>1,56; 9,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,21</t>
+          <t>0,89; 3,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,67</t>
+          <t>1,9; 4,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 6,53</t>
+          <t>6,43; 10,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,06</t>
+          <t>1,84; 5,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,07</t>
+          <t>1,62; 3,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 4,57</t>
+          <t>2,57; 8,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,62</t>
+          <t>1,54; 3,78</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>5,09%</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,08</t>
+          <t>2,81; 6,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,27; 3,05</t>
+          <t>5,22; 10,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,76</t>
+          <t>2,74; 7,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,74; 3,5</t>
+          <t>3,62; 6,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 4,99</t>
+          <t>10,98; 16,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,44</t>
+          <t>3,49; 8,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,19</t>
+          <t>3,72; 6,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,28</t>
+          <t>8,94; 12,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,59</t>
+          <t>3,63; 6,86</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1182,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>3,14%</t>
         </is>
       </c>
     </row>
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,11</t>
+          <t>1,12; 4,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,8; 6,96</t>
+          <t>1,84; 6,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,44</t>
+          <t>0,79; 3,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,33; 6,16</t>
+          <t>2,61; 5,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,51; 6,61</t>
+          <t>2,25; 13,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,02</t>
+          <t>3,01; 6,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,73; 3,98</t>
+          <t>2,16; 4,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,52; 5,94</t>
+          <t>2,36; 9,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,18; 2,77</t>
+          <t>2,25; 4,51</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>5,57%</t>
         </is>
       </c>
     </row>
@@ -1345,54 +1346,54 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,98; 3,54</t>
+          <t>1,1; 3,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,5; 8,62</t>
+          <t>4,85; 12,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,51</t>
+          <t>1,56; 4,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,52</t>
+          <t>5,51; 9,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,01; 10,29</t>
+          <t>9,21; 15,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,49; 5,07</t>
+          <t>5,51; 10,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,49; 3,43</t>
+          <t>3,91; 6,34</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,18; 8,86</t>
+          <t>8,15; 13,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,18; 3,78</t>
+          <t>4,24; 7,1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1402,47 +1403,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>3,15%</t>
         </is>
       </c>
     </row>
@@ -1455,398 +1456,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,7; 6,98</t>
+          <t>1,58; 2,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,22; 9,35</t>
+          <t>3,17; 5,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,88; 5,81</t>
+          <t>1,65; 2,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,02; 8,52</t>
+          <t>3,26; 4,49</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>11,2; 15,64</t>
+          <t>5,53; 8,89</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>3,27; 6,08</t>
+          <t>3,41; 4,89</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,8; 7,04</t>
+          <t>2,61; 3,37</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,77; 11,82</t>
+          <t>5,01; 7,18</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,4; 5,4</t>
+          <t>2,73; 3,63</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>1,78%</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>3,84%</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>1,89%</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>4,78%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>9,54%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>4,29%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>3,14%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>7,17%</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>3,12%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>0,86; 3,16</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>2,4; 5,78</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>1,05; 3,33</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>3,22; 7,1</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>4,79; 12,99</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>3,05; 5,98</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>2,21; 4,37</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>4,81; 8,79</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>2,35; 4,16</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>2,94%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>7,17%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>2,11%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>7,9%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>12,57%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>6,98%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>5,56%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>10,46%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>4,96%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>1,76; 4,88</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>5,07; 10,25</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>1,16; 3,49</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>5,72; 10,18</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>10,38; 15,25</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>5,52; 8,75</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>4,29; 7,14</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>8,8; 12,54</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>4,04; 6,16</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>2,14%</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>4,85%</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>1,8%</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>4,46%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>8,07%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>3,38%</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>3,3%</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>6,56%</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>2,62%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>1,69; 2,75</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>4,1; 5,68</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>1,46; 2,22</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>3,82; 5,33</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>7,2; 8,94</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>2,96; 3,91</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>2,86; 3,79</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>6,01; 7,13</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>2,3; 2,93</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
@@ -1856,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vulnerabilidad ante la depresión</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16/24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>619</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7416</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2149</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>7229</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3629</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>14645</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>5778</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>165; 2208</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1812; 20828</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>362; 6602</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1993</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2190; 18994</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1520; 7449</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>349; 2872</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5300; 29088</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2957; 11365</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25/34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1079</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1430</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>9017</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2965</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1284</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>10097</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4395</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1523</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4876</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4497</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>252; 2036</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2653; 19342</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1030; 6316</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>533; 2628</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4382; 19191</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2043; 8755</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35/44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>890</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>14534</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4498</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>14027</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9488</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2987</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>28561</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>13987</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>336; 2007</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7730; 24485</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1825; 8757</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1057; 3635</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8811; 20608</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5675; 15622</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1743; 4859</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>19379; 39588</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8536; 20884</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45/54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2450</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>30561</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5290</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>4110</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>34178</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>9219</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6560</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>64740</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>14509</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1397; 4342</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>9757; 56909</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2650; 9405</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2625; 6309</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>25953; 43800</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>5144; 15850</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>4463; 8937</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>26533; 90080</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>8867; 21783</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55/64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>5573</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>25547</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>10975</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>7430</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>44266</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>13881</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>13003</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>69813</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>24856</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3543; 8397</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>17624; 36132</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>6417; 17093</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5308; 10211</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>35019; 53982</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>8865; 20542</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>10147; 17109</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>58684; 84856</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>17743; 33514</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65/74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2421</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>7336</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2976</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4416</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>31506</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>8720</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>6837</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>38842</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>11696</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1208; 4299</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>3806; 12519</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1452; 5585</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3000; 6388</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>10159; 62116</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>5688; 12796</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>4812; 9166</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>15581; 60428</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>8377; 16817</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 y más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>12070</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>4019</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>9578</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>27911</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>16025</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>11508</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>39981</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>20044</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1061; 3448</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>7357; 18983</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2300; 6718</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>7350; 12230</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>21616; 36923</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>11727; 21961</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>8979; 14548</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>31514; 50421</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>15264; 25574</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>14275</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>98545</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>31337</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>28905</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>168134</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>63928</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>43180</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>266678</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>95265</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>10972; 18039</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>66608; 123259</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>24208; 41149</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>24671; 33990</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>123288; 198264</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>53318; 76574</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>37851; 48958</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>217131; 311111</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>82789; 109971</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/VUL_DEP-Edad-trans_dic.xlsx
+++ b/data/trans_dic/VUL_DEP-Edad-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la depresión</t>
+          <t>Vulnerabilidad ante la depresión (tasa de respuesta: 99,6%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1559,7 +1559,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la depresión</t>
+          <t>Vulnerabilidad ante la depresión (tasa de respuesta: 99,6%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/VUL_DEP-Edad-trans_dic.xlsx
+++ b/data/trans_dic/VUL_DEP-Edad-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,26; 3,52</t>
+          <t>0,28; 3,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 8,82</t>
+          <t>0,82; 9,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,19</t>
+          <t>0,0; 1,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,19; 10,3</t>
+          <t>1,22; 10,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,29</t>
+          <t>0,32; 2,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 6,92</t>
+          <t>1,45; 7,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,21</t>
+          <t>0,0; 1,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,13</t>
+          <t>0,0; 2,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,21</t>
+          <t>0,4; 2,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,84; 6,15</t>
+          <t>0,96; 6,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,99</t>
+          <t>0,33; 1,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,53</t>
+          <t>0,71; 3,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,11</t>
+          <t>0,5; 2,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,49; 7,88</t>
+          <t>2,72; 8,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,72</t>
+          <t>0,99; 3,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,74; 6,4</t>
+          <t>2,64; 6,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,52</t>
+          <t>0,89; 2,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 6,26</t>
+          <t>3,16; 6,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,14</t>
+          <t>0,71; 2,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,56; 9,07</t>
+          <t>1,69; 8,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,57</t>
+          <t>1,75; 3,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,43; 10,86</t>
+          <t>6,49; 10,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,62; 3,23</t>
+          <t>1,44; 2,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,57; 8,74</t>
+          <t>3,07; 9,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,81; 6,65</t>
+          <t>2,58; 5,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,22; 10,7</t>
+          <t>5,11; 10,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,62; 6,96</t>
+          <t>3,74; 7,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,98; 16,93</t>
+          <t>11,31; 17,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,72; 6,27</t>
+          <t>3,48; 5,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,94; 12,92</t>
+          <t>8,65; 12,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,12; 4,0</t>
+          <t>1,04; 3,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,84; 6,04</t>
+          <t>1,82; 6,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,61; 5,55</t>
+          <t>2,88; 5,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,25; 13,74</t>
+          <t>2,24; 13,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,16; 4,12</t>
+          <t>2,25; 4,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,36; 9,16</t>
+          <t>2,29; 9,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,59</t>
+          <t>1,0; 3,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,85; 12,51</t>
+          <t>4,76; 12,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,51; 9,17</t>
+          <t>5,84; 9,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,21; 15,73</t>
+          <t>9,13; 15,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,91; 6,34</t>
+          <t>4,07; 6,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,15; 13,05</t>
+          <t>8,12; 12,71</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,58; 2,6</t>
+          <t>1,43; 2,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,17; 5,87</t>
+          <t>3,08; 5,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,26; 4,49</t>
+          <t>3,13; 4,27</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,53; 8,89</t>
+          <t>5,46; 8,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1486,12 +1486,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,61; 3,37</t>
+          <t>2,45; 3,18</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,01; 7,18</t>
+          <t>4,89; 7,15</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>282</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>1292</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1766,12 +1766,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>165; 2208</t>
+          <t>217; 2515</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1812; 20828</t>
+          <t>1944; 21397</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1781,12 +1781,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0; 1993</t>
+          <t>0; 934</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2190; 18994</t>
+          <t>2250; 19786</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1796,12 +1796,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>349; 2872</t>
+          <t>452; 3070</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5300; 29088</t>
+          <t>6094; 30347</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>241</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>892</t>
+          <t>849</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1284</t>
+          <t>1090</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1929,12 +1929,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1523</t>
+          <t>0; 899</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 4876</t>
+          <t>0; 4853</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1944,12 +1944,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>252; 2036</t>
+          <t>279; 2061</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2653; 19342</t>
+          <t>3011; 19555</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>533; 2628</t>
+          <t>472; 2327</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4382; 19191</t>
+          <t>3859; 20046</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>890</t>
+          <t>1277</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2097</t>
+          <t>1918</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2987</t>
+          <t>3195</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -2092,12 +2092,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>336; 2007</t>
+          <t>518; 2979</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7730; 24485</t>
+          <t>8443; 25584</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -2107,12 +2107,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1057; 3635</t>
+          <t>1100; 3697</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8811; 20608</t>
+          <t>8496; 20641</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -2122,12 +2122,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1743; 4859</t>
+          <t>1925; 5086</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>19379; 39588</t>
+          <t>19961; 39710</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2450</t>
+          <t>2107</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4110</t>
+          <t>3952</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>6560</t>
+          <t>6059</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1397; 4342</t>
+          <t>1025; 3478</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9757; 56909</t>
+          <t>10590; 55641</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2270,12 +2270,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2625; 6309</t>
+          <t>2670; 6002</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>25953; 43800</t>
+          <t>26200; 43688</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -2285,12 +2285,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4463; 8937</t>
+          <t>4272; 8421</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>26533; 90080</t>
+          <t>31654; 92843</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>4838</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7430</t>
+          <t>7783</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13003</t>
+          <t>12621</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2418,12 +2418,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3543; 8397</t>
+          <t>3332; 7091</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>17624; 36132</t>
+          <t>17266; 35167</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2433,12 +2433,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5308; 10211</t>
+          <t>5685; 10834</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>35019; 53982</t>
+          <t>36058; 55136</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -2448,12 +2448,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>10147; 17109</t>
+          <t>9776; 16313</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>58684; 84856</t>
+          <t>56814; 84050</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2421</t>
+          <t>2046</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4416</t>
+          <t>4916</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>6837</t>
+          <t>6962</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2581,12 +2581,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1208; 4299</t>
+          <t>1085; 3597</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3806; 12519</t>
+          <t>3783; 12786</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3000; 6388</t>
+          <t>3333; 6847</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>10159; 62116</t>
+          <t>10132; 61918</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -2611,12 +2611,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4812; 9166</t>
+          <t>4952; 9339</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>15581; 60428</t>
+          <t>15097; 59574</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>1740</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>9578</t>
+          <t>9781</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>11508</t>
+          <t>11521</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2744,12 +2744,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1061; 3448</t>
+          <t>892; 3226</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>7357; 18983</t>
+          <t>7227; 18759</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>7350; 12230</t>
+          <t>7694; 12926</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>21616; 36923</t>
+          <t>21438; 36954</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2774,12 +2774,12 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>8979; 14548</t>
+          <t>8991; 14242</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>31514; 50421</t>
+          <t>31390; 49127</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>14275</t>
+          <t>13259</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>28905</t>
+          <t>29481</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>43180</t>
+          <t>42740</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -2907,12 +2907,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>10972; 18039</t>
+          <t>10296; 16392</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>66608; 123259</t>
+          <t>64621; 124176</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -2922,12 +2922,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>24671; 33990</t>
+          <t>24966; 34080</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>123288; 198264</t>
+          <t>121849; 198386</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -2937,12 +2937,12 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>37851; 48958</t>
+          <t>37251; 48427</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>217131; 311111</t>
+          <t>211623; 309454</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">

--- a/data/trans_dic/VUL_DEP-Edad-trans_dic.xlsx
+++ b/data/trans_dic/VUL_DEP-Edad-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>3,05%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,26%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>1,32%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,14%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,26%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>3,55%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2,13%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>0,43%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>3,92%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,13%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>3,29%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,7%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>0,9%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>3,48%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>1,7%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,71; 8,56</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,21; 3,88</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>0,28; 3,28</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,82; 9,06</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,21; 3,88</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>1,04; 9,84</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,89; 4,37</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>0,0; 1,41</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>1,22; 10,73</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,89; 4,37</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>1,43; 6,62</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0,87; 3,34</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>0,32; 2,15</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>1,45; 7,22</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0,87; 3,34</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1,1%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,78%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,32%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,47%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,78%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>3,23%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1,4%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>1,23%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>2,87%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>1,4%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>2,21%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1,12%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>0,76%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>1,86%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>1,12%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,0; 3,61</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,47</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>0,0; 1,21</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,12</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,47</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>1,3; 6,44</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 2,98</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0,4; 2,98</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,96; 6,22</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,49; 2,98</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>1,02; 4,25</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0,52; 2,22</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>0,33; 1,62</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>0,71; 3,69</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>0,52; 2,22</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>4,34%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,81%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>1,23%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,68%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,81%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>4,18%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3,84%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>1,73%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>4,36%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>3,84%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>4,26%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2,82%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>1,48%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>4,51%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>2,82%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>2,57; 7,45</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,73; 3,52</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>0,5; 2,86</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2,72; 8,23</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,73; 3,52</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>2,52; 6,1</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2,3; 6,32</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>0,99; 3,33</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>2,64; 6,41</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>2,3; 6,32</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>2,94; 5,89</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1,72; 4,21</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>0,89; 2,36</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>3,16; 6,28</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>1,72; 4,21</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>8,37%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,78%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>1,46%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4,87%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,78%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>8,8%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3,3%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>2,59%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>8,47%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>3,3%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>8,59%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2,52%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>2,04%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>6,28%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>2,52%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>5,88; 11,58</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,89; 3,17</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>0,71; 2,41</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,69; 8,87</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,89; 3,17</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>6,79; 11,19</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1,84; 5,68</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>1,75; 3,94</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>6,49; 10,83</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>1,84; 5,68</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>6,95; 10,5</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1,54; 3,78</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>1,44; 2,84</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>3,07; 9,01</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>1,54; 3,78</t>
         </is>
       </c>
     </row>
@@ -1073,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>7,1%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,69%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>3,74%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>7,56%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,69%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>13,94%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5,46%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>5,12%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>13,88%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>5,46%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>10,49%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5,09%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>4,49%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>10,63%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>5,09%</t>
         </is>
       </c>
     </row>
@@ -1126,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>4,78; 9,72</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2,74; 7,3</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>2,58; 5,49</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>5,11; 10,41</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>2,74; 7,3</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>11,29; 17,19</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3,49; 8,08</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>3,74; 7,13</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>11,31; 17,29</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>3,49; 8,08</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>8,59; 12,58</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3,63; 6,86</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>3,48; 5,8</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>8,65; 12,8</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>3,63; 6,86</t>
         </is>
       </c>
     </row>
@@ -1183,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>3,39%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1,62%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>1,96%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,54%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,62%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>12,86%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4,61%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>4,24%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>6,97%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>4,61%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>8,5%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3,14%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>3,16%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>5,89%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>3,14%</t>
         </is>
       </c>
     </row>
@@ -1236,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>1,7; 5,88</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0,79; 3,04</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>1,04; 3,45</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1,82; 6,17</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,79; 3,04</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>10,06; 16,26</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3,01; 6,77</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>2,88; 5,91</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>2,24; 13,7</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>3,01; 6,77</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>6,73; 10,64</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2,25; 4,51</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>2,25; 4,24</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>2,29; 9,03</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>2,25; 4,51</t>
         </is>
       </c>
     </row>
@@ -1293,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>8,21%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2,73%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>1,95%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>7,95%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,73%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>12,02%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>7,53%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>7,42%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>11,89%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>7,53%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>10,53%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>5,57%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>5,22%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>10,34%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>5,57%</t>
         </is>
       </c>
     </row>
@@ -1346,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>4,88; 12,61</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1,56; 4,56</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>1,0; 3,62</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>4,76; 12,36</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>1,56; 4,56</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>9,17; 15,81</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5,51; 10,32</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>5,84; 9,81</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>9,13; 15,74</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>5,51; 10,32</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>8,22; 12,88</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>4,24; 7,1</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>4,07; 6,45</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>8,12; 12,71</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>4,24; 7,1</t>
         </is>
       </c>
     </row>
@@ -1403,47 +1403,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>5,3%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2,14%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>1,84%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>4,69%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>2,14%</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>8,49%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4,09%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>3,69%</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>7,54%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>4,09%</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>6,95%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3,15%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>2,81%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>6,16%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>3,15%</t>
         </is>
       </c>
     </row>
@@ -1456,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>4,32; 6,41</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1,65; 2,81</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>1,43; 2,27</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>3,08; 5,91</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>1,65; 2,81</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>7,53; 9,46</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3,41; 4,89</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>3,13; 4,27</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>5,46; 8,9</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>3,41; 4,89</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>6,25; 7,68</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>2,73; 3,63</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>2,45; 3,18</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>4,89; 7,15</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>2,73; 3,63</t>
         </is>
       </c>
     </row>
@@ -1590,47 +1590,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1660,47 +1660,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>6</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
         </is>
       </c>
     </row>
@@ -1713,47 +1713,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>7347</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2149</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>1010</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>7416</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2149</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>7804</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3629</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>282</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>7229</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>3629</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>15151</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>5778</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>1292</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>14645</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>5778</t>
         </is>
       </c>
     </row>
@@ -1766,47 +1766,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1709; 20659</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>362; 6602</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>217; 2515</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1944; 21397</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>362; 6602</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>2284; 21604</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1520; 7449</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>0; 934</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>2250; 19786</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>1520; 7449</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>6584; 30533</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2957; 11365</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>452; 3070</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>6094; 30347</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>2957; 11365</t>
         </is>
       </c>
     </row>
@@ -1838,32 +1838,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>7</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
         </is>
       </c>
     </row>
@@ -1876,47 +1876,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2873</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1430</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>241</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1079</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1430</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>9169</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2965</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>849</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>9017</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>2965</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>12043</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4395</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>1090</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>10097</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>4395</t>
         </is>
       </c>
     </row>
@@ -1929,47 +1929,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0; 9453</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4497</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>0; 899</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0; 4853</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0; 4497</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>3696; 18264</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1030; 6316</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>279; 2061</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>3011; 19555</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1030; 6316</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>5576; 23165</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2043; 8755</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>472; 2327</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>3859; 20046</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>2043; 8755</t>
         </is>
       </c>
     </row>
@@ -1986,47 +1986,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>18</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>23</t>
         </is>
       </c>
     </row>
@@ -2039,47 +2039,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>15980</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4498</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>1277</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>14534</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>4498</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>15558</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9488</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>1918</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>14027</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>9488</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>31538</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>13987</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>3195</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>28561</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>13987</t>
         </is>
       </c>
     </row>
@@ -2092,47 +2092,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>9470; 27422</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1825; 8757</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>518; 2979</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>8443; 25584</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1825; 8757</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>9405; 22734</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5675; 15622</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>1100; 3697</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>8496; 20641</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>5675; 15622</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>21756; 43616</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8536; 20884</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>1925; 5086</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>19961; 39710</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>8536; 20884</t>
         </is>
       </c>
     </row>
@@ -2149,47 +2149,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>38</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>23</t>
         </is>
       </c>
     </row>
@@ -2202,47 +2202,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>35473</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5290</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>2107</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>30561</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5290</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>38702</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>9219</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>3952</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>34178</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>9219</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>74175</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>14509</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>6059</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>64740</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>14509</t>
         </is>
       </c>
     </row>
@@ -2255,47 +2255,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>24927; 49085</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2650; 9405</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>1025; 3478</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>10590; 55641</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>2650; 9405</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>29859; 49234</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5144; 15850</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>2670; 6002</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>26200; 43688</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>5144; 15850</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>60029; 90740</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>8867; 21783</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>4272; 8421</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>31654; 92843</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>8867; 21783</t>
         </is>
       </c>
     </row>
@@ -2312,47 +2312,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>41</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>68</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>42</t>
         </is>
       </c>
     </row>
@@ -2365,47 +2365,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>26022</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>10975</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>4838</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>25547</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>10975</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>50253</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>13881</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>7783</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>44266</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>13881</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>76274</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>24856</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>12621</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>69813</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>24856</t>
         </is>
       </c>
     </row>
@@ -2418,47 +2418,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>17526; 35634</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6417; 17093</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>3332; 7091</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>17266; 35167</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>6417; 17093</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>40703; 61946</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>8865; 20542</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>5685; 10834</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>36058; 55136</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>8865; 20542</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>62423; 91435</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>17743; 33514</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>9776; 16313</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>56814; 84050</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>17743; 33514</t>
         </is>
       </c>
     </row>
@@ -2475,47 +2475,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>44</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>34</t>
         </is>
       </c>
     </row>
@@ -2528,47 +2528,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>7817</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2976</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>2046</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>7336</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>2976</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>34646</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>8720</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>4916</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>31506</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>8720</t>
-        </is>
-      </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>42463</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>11696</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
           <t>6962</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>38842</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>11696</t>
         </is>
       </c>
     </row>
@@ -2581,47 +2581,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>3925; 13550</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1452; 5585</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>1085; 3597</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>3783; 12786</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>1452; 5585</t>
-        </is>
-      </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
+          <t>27087; 43797</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>5688; 12796</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
           <t>3333; 6847</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>10132; 61918</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>5688; 12796</t>
-        </is>
-      </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
+          <t>33629; 53159</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>8377; 16817</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
           <t>4952; 9339</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>15097; 59574</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>8377; 16817</t>
         </is>
       </c>
     </row>
@@ -2638,47 +2638,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
           <t>60</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
           <t>72</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>56</t>
         </is>
       </c>
     </row>
@@ -2691,47 +2691,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>13586</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>4019</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>1740</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>12070</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>4019</t>
-        </is>
-      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
+          <t>30996</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>16025</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>9781</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>27911</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>16025</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
+          <t>44582</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>20044</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
           <t>11521</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>39981</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>20044</t>
         </is>
       </c>
     </row>
@@ -2744,47 +2744,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>8075; 20882</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2300; 6718</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>892; 3226</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>7227; 18759</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>2300; 6718</t>
-        </is>
-      </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>23652; 40761</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>11727; 21961</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>7694; 12926</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>21438; 36954</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>11727; 21961</t>
-        </is>
-      </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>34812; 54519</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>15264; 25574</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>8991; 14242</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>31390; 49127</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>15264; 25574</t>
         </is>
       </c>
     </row>
@@ -2801,47 +2801,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
           <t>78</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
           <t>175</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>274</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>133</t>
-        </is>
-      </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
           <t>253</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>382</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>196</t>
         </is>
       </c>
     </row>
@@ -2854,47 +2854,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
+          <t>109096</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>31337</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
           <t>13259</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>98545</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>31337</t>
-        </is>
-      </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
+          <t>187129</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>63928</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
           <t>29481</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>168134</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>63928</t>
-        </is>
-      </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
+          <t>296225</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>95265</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
           <t>42740</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>266678</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>95265</t>
         </is>
       </c>
     </row>
@@ -2907,47 +2907,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
+          <t>88877; 131905</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>24208; 41149</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
           <t>10296; 16392</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>64621; 124176</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>24208; 41149</t>
-        </is>
-      </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
+          <t>165827; 208459</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>53318; 76574</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
           <t>24966; 34080</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>121849; 198386</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>53318; 76574</t>
-        </is>
-      </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
+          <t>266146; 327368</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>82789; 109971</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
           <t>37251; 48427</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>211623; 309454</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>82789; 109971</t>
         </is>
       </c>
     </row>
